--- a/cvičení rozšiřující možnosti žáci.xlsx
+++ b/cvičení rozšiřující možnosti žáci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\seminarPrg\seminar2425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE466E2-21C4-47F8-83B2-31165256ACAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E1512-2829-421C-8053-F1C631A972DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
